--- a/P4_CreateReportDB/top_suppliers_categories.xlsx
+++ b/P4_CreateReportDB/top_suppliers_categories.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\become-business-analyst\P4_CreateReportDB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CB8196E8-CD13-4679-8CA5-7C3F6A83F689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="top_suppliers_categories" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
   <si>
     <t>CompanyName</t>
   </si>
@@ -104,8 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,24 +700,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -738,15 +732,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -763,24 +757,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[top_suppliers_categories.xlsx]Sheet1!数据透视表1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -823,49 +806,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -874,21 +815,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -909,49 +850,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -960,21 +859,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent3">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent3">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -995,49 +894,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1046,21 +903,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent4">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent4">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent4">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1081,49 +938,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1132,21 +947,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent5">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent5">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1167,49 +982,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1218,21 +991,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent6">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent6">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1253,49 +1026,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1305,6 +1036,7 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
@@ -1312,6 +1044,7 @@
               </a:gs>
               <a:gs pos="50000">
                 <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
@@ -1319,6 +1052,7 @@
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1339,54 +1073,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1395,21 +1082,24 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1430,54 +1120,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
@@ -1486,7 +1129,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1539,7 +1181,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$15</c:f>
@@ -1596,7 +1237,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E64D-45DD-BBDC-3308E7B27187}"/>
             </c:ext>
@@ -1654,7 +1295,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$15</c:f>
@@ -1711,7 +1351,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E64D-45DD-BBDC-3308E7B27187}"/>
             </c:ext>
@@ -1769,7 +1409,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$15</c:f>
@@ -1826,7 +1465,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E64D-45DD-BBDC-3308E7B27187}"/>
             </c:ext>
@@ -1884,7 +1523,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$15</c:f>
@@ -1941,7 +1579,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E64D-45DD-BBDC-3308E7B27187}"/>
             </c:ext>
@@ -1999,7 +1637,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$15</c:f>
@@ -2056,7 +1693,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E64D-45DD-BBDC-3308E7B27187}"/>
             </c:ext>
@@ -2114,7 +1751,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$15</c:f>
@@ -2171,7 +1807,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E64D-45DD-BBDC-3308E7B27187}"/>
             </c:ext>
@@ -2232,7 +1868,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$15</c:f>
@@ -2286,7 +1921,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-E64D-45DD-BBDC-3308E7B27187}"/>
             </c:ext>
@@ -2347,7 +1982,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$15</c:f>
@@ -2398,35 +2032,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-E64D-45DD-BBDC-3308E7B27187}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:overlap val="100"/>
-        <c:axId val="533734168"/>
-        <c:axId val="533734496"/>
+        <c:axId val="126598144"/>
+        <c:axId val="125965056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="533734168"/>
+        <c:axId val="126598144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2460,19 +2084,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533734496"/>
+        <c:crossAx val="125965056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="533734496"/>
+        <c:axId val="125965056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2490,7 +2112,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2518,7 +2139,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533734168"/>
+        <c:crossAx val="126598144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2532,7 +2153,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2562,14 +2183,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -2609,10 +2229,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2628,6 +2248,708 @@
       </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:pivotSource>
+    <c:name>[top_suppliers_categories.xlsx]Sheet1!数据透视表1</c:name>
+    <c:fmtId val="4"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>大供应商供应产品种类以及</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>订单</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>总金额</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beverages</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Aux joyeux eccl锟絪iastiques</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Formaggi Fortini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>For锟絫s d'锟絩ables</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gai p锟絫urage</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>G'day, Mate</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Norske Meierier</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pasta Buttini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pavlova, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Plutzer Lebensmittelgro锟絤锟絩kte AG</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Specialty Biscuits, Ltd.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>153691.27499999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10672.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8177.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Condiments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Aux joyeux eccl锟絪iastiques</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Formaggi Fortini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>For锟絫s d'锟絩ables</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gai p锟絫urage</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>G'day, Mate</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Norske Meierier</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pasta Buttini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pavlova, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Plutzer Lebensmittelgro锟絤锟絩kte AG</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Specialty Biscuits, Ltd.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>14352.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16701.095000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9171.6299999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Confections</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Aux joyeux eccl锟絪iastiques</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Formaggi Fortini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>For锟絫s d'锟絩ables</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gai p锟絫urage</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>G'day, Mate</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Norske Meierier</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pasta Buttini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pavlova, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Plutzer Lebensmittelgro锟絤锟絩kte AG</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Specialty Biscuits, Ltd.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>47234.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17215.7755</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46243.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dairy Products</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Aux joyeux eccl锟絪iastiques</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Formaggi Fortini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>For锟絫s d'锟絩ables</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gai p锟絫urage</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>G'day, Mate</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Norske Meierier</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pasta Buttini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pavlova, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Plutzer Lebensmittelgro锟絤锟絩kte AG</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Specialty Biscuits, Ltd.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>48225.165000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117981.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43141.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grains/Cereals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Aux joyeux eccl锟絪iastiques</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Formaggi Fortini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>For锟絫s d'锟絩ables</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gai p锟絫urage</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>G'day, Mate</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Norske Meierier</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pasta Buttini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pavlova, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Plutzer Lebensmittelgro锟絤锟絩kte AG</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Specialty Biscuits, Ltd.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="4">
+                  <c:v>3232.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50254.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21957.967499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Meat/Poultry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Aux joyeux eccl锟絪iastiques</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Formaggi Fortini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>For锟絫s d'锟絩ables</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gai p锟絫urage</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>G'day, Mate</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Norske Meierier</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pasta Buttini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pavlova, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Plutzer Lebensmittelgro锟絤锟絩kte AG</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Specialty Biscuits, Ltd.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="4">
+                  <c:v>20574.169999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32698.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80368.672000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Produce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Aux joyeux eccl锟絪iastiques</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Formaggi Fortini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>For锟絫s d'锟絩ables</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gai p锟絫urage</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>G'day, Mate</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Norske Meierier</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pasta Buttini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pavlova, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Plutzer Lebensmittelgro锟絤锟絩kte AG</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Specialty Biscuits, Ltd.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="4">
+                  <c:v>41819.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25696.639999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Seafood</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Aux joyeux eccl锟絪iastiques</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Formaggi Fortini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>For锟絫s d'锟絩ables</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gai p锟絫urage</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>G'day, Mate</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Norske Meierier</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pasta Buttini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pavlova, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Plutzer Lebensmittelgro锟絤锟絩kte AG</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Specialty Biscuits, Ltd.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="7">
+                  <c:v>29171.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="154040192"/>
+        <c:axId val="155321856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="154040192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155321856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="155321856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="154040192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3171,23 +3493,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20ABC8EE-C13A-4F34-A172-B4BFCA1A86C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20ABC8EE-C13A-4F34-A172-B4BFCA1A86C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,11 +3527,41 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ADMIN" refreshedDate="43454.656730787035" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="21">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="leesper" refreshedDate="43455.550621759263" createdVersion="6" refreshedVersion="3" minRefreshableVersion="3" recordCount="21">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C22" sheet="top_suppliers_categories"/>
   </cacheSource>
@@ -3363,7 +3715,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:J15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3469,7 +3821,7 @@
   <dataFields count="1">
     <dataField name="求和项:TotalCost" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="8">
+  <chartFormats count="40">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -3555,6 +3907,390 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3622,7 +4358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3674,7 +4410,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3868,35 +4604,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -3904,7 +4638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3936,7 +4670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3954,7 +4688,7 @@
         <v>153691.27499999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3972,7 +4706,7 @@
         <v>48225.165000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3992,7 +4726,7 @@
         <v>61587.57</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -4010,7 +4744,7 @@
         <v>117981.18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -4032,7 +4766,7 @@
         <v>65626.77</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -4050,7 +4784,7 @@
         <v>43141.51</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -4068,7 +4802,7 @@
         <v>50254.61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -4094,7 +4828,7 @@
         <v>106459.7755</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -4120,7 +4854,7 @@
         <v>145372.3995</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -4138,7 +4872,7 @@
         <v>46243.98</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -4178,21 +4912,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="36.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4203,7 +4937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4214,7 +4948,7 @@
         <v>153691.27499999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4225,7 +4959,7 @@
         <v>48225.165000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4236,7 +4970,7 @@
         <v>47234.97</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4247,7 +4981,7 @@
         <v>14352.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4258,7 +4992,7 @@
         <v>41819.65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4269,7 +5003,7 @@
         <v>20574.169999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4280,7 +5014,7 @@
         <v>3232.95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -4291,7 +5025,7 @@
         <v>117981.18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4302,7 +5036,7 @@
         <v>43141.51</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -4313,7 +5047,7 @@
         <v>50254.61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -4324,7 +5058,7 @@
         <v>32698.38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -4335,7 +5069,7 @@
         <v>29171.875</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -4346,7 +5080,7 @@
         <v>17215.7755</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -4357,7 +5091,7 @@
         <v>16701.095000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -4368,7 +5102,7 @@
         <v>10672.65</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4379,7 +5113,7 @@
         <v>80368.672000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -4390,7 +5124,7 @@
         <v>25696.639999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -4401,7 +5135,7 @@
         <v>21957.967499999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4412,7 +5146,7 @@
         <v>9171.6299999999992</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4423,7 +5157,7 @@
         <v>8177.49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
